--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2393.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2393.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.065578255794338</v>
+        <v>1.064679026603699</v>
       </c>
       <c r="B1">
-        <v>2.345944268893824</v>
+        <v>2.420620203018188</v>
       </c>
       <c r="C1">
-        <v>7.305341006983484</v>
+        <v>5.146184921264648</v>
       </c>
       <c r="D1">
-        <v>1.791420553108118</v>
+        <v>2.30472731590271</v>
       </c>
       <c r="E1">
-        <v>1.001884498786677</v>
+        <v>1.307539224624634</v>
       </c>
     </row>
   </sheetData>
